--- a/data/pca/factorExposure/factorExposure_2016-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009976748973868946</v>
+        <v>0.01311897376514733</v>
       </c>
       <c r="C2">
-        <v>-0.05410807067910931</v>
+        <v>0.04284684355936709</v>
       </c>
       <c r="D2">
-        <v>0.03800768128057742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0628042351068597</v>
+      </c>
+      <c r="E2">
+        <v>-0.07044109964174447</v>
+      </c>
+      <c r="F2">
+        <v>-0.06754501576519083</v>
+      </c>
+      <c r="G2">
+        <v>-0.03529223834104733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05128680412580307</v>
+        <v>0.02893552700374064</v>
       </c>
       <c r="C3">
-        <v>-0.09860484531043286</v>
+        <v>0.07846431719989243</v>
       </c>
       <c r="D3">
-        <v>0.1076920775744293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08951919748705073</v>
+      </c>
+      <c r="E3">
+        <v>-0.072532544789842</v>
+      </c>
+      <c r="F3">
+        <v>0.00569961695833552</v>
+      </c>
+      <c r="G3">
+        <v>0.03894867295155618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06491771373258821</v>
+        <v>0.05766307430877551</v>
       </c>
       <c r="C4">
-        <v>-0.06054692131149159</v>
+        <v>0.06645460182651651</v>
       </c>
       <c r="D4">
-        <v>0.03086332217341391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05930535561945056</v>
+      </c>
+      <c r="E4">
+        <v>-0.07125495962696042</v>
+      </c>
+      <c r="F4">
+        <v>-0.07617554909643544</v>
+      </c>
+      <c r="G4">
+        <v>0.03933759194021859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03942352282869941</v>
+        <v>0.03540468845183424</v>
       </c>
       <c r="C6">
-        <v>-0.03990486446725821</v>
+        <v>0.03225728687876719</v>
       </c>
       <c r="D6">
-        <v>0.03496144413238948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06358060662895318</v>
+      </c>
+      <c r="E6">
+        <v>-0.07289821264136787</v>
+      </c>
+      <c r="F6">
+        <v>-0.05650131379535319</v>
+      </c>
+      <c r="G6">
+        <v>0.02408466369170144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02152804279746742</v>
+        <v>0.01853841312623743</v>
       </c>
       <c r="C7">
-        <v>-0.04467822309770071</v>
+        <v>0.03902323879547765</v>
       </c>
       <c r="D7">
-        <v>-0.003729934055588952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03759438617896855</v>
+      </c>
+      <c r="E7">
+        <v>-0.04873012880985961</v>
+      </c>
+      <c r="F7">
+        <v>-0.09858257006344188</v>
+      </c>
+      <c r="G7">
+        <v>0.009972590615742549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002604076725431604</v>
+        <v>0.003160227810545255</v>
       </c>
       <c r="C8">
-        <v>-0.02795431767416958</v>
+        <v>0.02904338026165369</v>
       </c>
       <c r="D8">
-        <v>0.03032763313903149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03104549323880959</v>
+      </c>
+      <c r="E8">
+        <v>-0.05061296653722312</v>
+      </c>
+      <c r="F8">
+        <v>-0.03678530041177623</v>
+      </c>
+      <c r="G8">
+        <v>0.009832846016255446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03474271911930777</v>
+        <v>0.03640950375560177</v>
       </c>
       <c r="C9">
-        <v>-0.04558007135229942</v>
+        <v>0.05254625489957906</v>
       </c>
       <c r="D9">
-        <v>0.01763334552350181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04295741015014153</v>
+      </c>
+      <c r="E9">
+        <v>-0.0576287172567958</v>
+      </c>
+      <c r="F9">
+        <v>-0.08383471641977115</v>
+      </c>
+      <c r="G9">
+        <v>0.02487692233002989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07353391987603965</v>
+        <v>0.1002530590117492</v>
       </c>
       <c r="C10">
-        <v>0.1965751881108486</v>
+        <v>-0.1959328784196202</v>
       </c>
       <c r="D10">
-        <v>-0.005172478059582548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005712683993372041</v>
+      </c>
+      <c r="E10">
+        <v>-0.04399149483945003</v>
+      </c>
+      <c r="F10">
+        <v>-0.03932429939214782</v>
+      </c>
+      <c r="G10">
+        <v>0.008832013146219802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0408347918812134</v>
+        <v>0.03621437093344359</v>
       </c>
       <c r="C11">
-        <v>-0.05552410183836518</v>
+        <v>0.05159194359214062</v>
       </c>
       <c r="D11">
-        <v>0.01436823264318898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03370152101029333</v>
+      </c>
+      <c r="E11">
+        <v>-0.01641974585603197</v>
+      </c>
+      <c r="F11">
+        <v>-0.06465170382555506</v>
+      </c>
+      <c r="G11">
+        <v>0.01650452789977632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04069998192391129</v>
+        <v>0.03701093103267646</v>
       </c>
       <c r="C12">
-        <v>-0.04915242397621684</v>
+        <v>0.04741871024901344</v>
       </c>
       <c r="D12">
-        <v>0.003039805030508327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02542690879194752</v>
+      </c>
+      <c r="E12">
+        <v>-0.02377227305272072</v>
+      </c>
+      <c r="F12">
+        <v>-0.06623037921522046</v>
+      </c>
+      <c r="G12">
+        <v>0.01333234262505118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01503895504482176</v>
+        <v>0.01219590244633625</v>
       </c>
       <c r="C13">
-        <v>-0.05205226044602645</v>
+        <v>0.04393344299420844</v>
       </c>
       <c r="D13">
-        <v>0.02347878190759828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05912958568707247</v>
+      </c>
+      <c r="E13">
+        <v>-0.08493377460439627</v>
+      </c>
+      <c r="F13">
+        <v>-0.09841186891160346</v>
+      </c>
+      <c r="G13">
+        <v>0.02080066770190166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006866578144603522</v>
+        <v>0.004642511296961794</v>
       </c>
       <c r="C14">
-        <v>-0.03638313973055477</v>
+        <v>0.03235379605005049</v>
       </c>
       <c r="D14">
-        <v>-0.01202678918284372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02588051554660921</v>
+      </c>
+      <c r="E14">
+        <v>-0.03802334854552961</v>
+      </c>
+      <c r="F14">
+        <v>-0.09532967562257906</v>
+      </c>
+      <c r="G14">
+        <v>-0.004501956082236918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00051920438241531</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005840641529135942</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006619814060424037</v>
+      </c>
+      <c r="E15">
+        <v>-0.002320035853373358</v>
+      </c>
+      <c r="F15">
+        <v>-0.003336251401985206</v>
+      </c>
+      <c r="G15">
+        <v>0.000286711118870419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03735321685469364</v>
+        <v>0.03374014705022096</v>
       </c>
       <c r="C16">
-        <v>-0.04774572369508839</v>
+        <v>0.04562135054542294</v>
       </c>
       <c r="D16">
-        <v>0.009171395295201281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02704616104576775</v>
+      </c>
+      <c r="E16">
+        <v>-0.03060432322448729</v>
+      </c>
+      <c r="F16">
+        <v>-0.06704502483442087</v>
+      </c>
+      <c r="G16">
+        <v>0.002806027261570559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02292839085994734</v>
+        <v>0.01614812431938206</v>
       </c>
       <c r="C19">
-        <v>-0.06598223582708619</v>
+        <v>0.05076145844970418</v>
       </c>
       <c r="D19">
-        <v>0.07948355178620967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08976696586971414</v>
+      </c>
+      <c r="E19">
+        <v>-0.1005284595678162</v>
+      </c>
+      <c r="F19">
+        <v>-0.07410412300281601</v>
+      </c>
+      <c r="G19">
+        <v>-0.0219852719822636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01672488899432552</v>
+        <v>0.01354714921170419</v>
       </c>
       <c r="C20">
-        <v>-0.04623483284459348</v>
+        <v>0.04121333072241037</v>
       </c>
       <c r="D20">
-        <v>0.01962370505409666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03757009117027887</v>
+      </c>
+      <c r="E20">
+        <v>-0.06736882925799051</v>
+      </c>
+      <c r="F20">
+        <v>-0.07784423670234142</v>
+      </c>
+      <c r="G20">
+        <v>0.007328554291807011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.011082315369151</v>
+        <v>0.008972546173141551</v>
       </c>
       <c r="C21">
-        <v>-0.05079250124734923</v>
+        <v>0.04562526044045891</v>
       </c>
       <c r="D21">
-        <v>0.0410067454709414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0665106617942504</v>
+      </c>
+      <c r="E21">
+        <v>-0.09772319733515313</v>
+      </c>
+      <c r="F21">
+        <v>-0.1217547753396816</v>
+      </c>
+      <c r="G21">
+        <v>0.01009287957397535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002081829077023746</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02404395633496352</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03656936249371354</v>
+      </c>
+      <c r="E22">
+        <v>-0.02889239654095349</v>
+      </c>
+      <c r="F22">
+        <v>-0.01420480626215053</v>
+      </c>
+      <c r="G22">
+        <v>0.03946244234971671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002150043154122102</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02418569040462768</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03622778493578658</v>
+      </c>
+      <c r="E23">
+        <v>-0.02915790060000332</v>
+      </c>
+      <c r="F23">
+        <v>-0.01400559122139479</v>
+      </c>
+      <c r="G23">
+        <v>0.03965870568504849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03305083377276235</v>
+        <v>0.03342854529965655</v>
       </c>
       <c r="C24">
-        <v>-0.05144505096671936</v>
+        <v>0.05357456635875234</v>
       </c>
       <c r="D24">
-        <v>0.00802116155101357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02634759771124495</v>
+      </c>
+      <c r="E24">
+        <v>-0.02777213727544558</v>
+      </c>
+      <c r="F24">
+        <v>-0.07604129999430566</v>
+      </c>
+      <c r="G24">
+        <v>0.01084002619517593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04700881866070784</v>
+        <v>0.04370045468623314</v>
       </c>
       <c r="C25">
-        <v>-0.06134259996365754</v>
+        <v>0.05698921237634169</v>
       </c>
       <c r="D25">
-        <v>-0.0004176985124755635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02469754975029887</v>
+      </c>
+      <c r="E25">
+        <v>-0.02269629495604952</v>
+      </c>
+      <c r="F25">
+        <v>-0.07765764840287423</v>
+      </c>
+      <c r="G25">
+        <v>0.02772663123655893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01612129850697275</v>
+        <v>0.01387510085352465</v>
       </c>
       <c r="C26">
-        <v>-0.01553557048567653</v>
+        <v>0.01707166659510816</v>
       </c>
       <c r="D26">
-        <v>-0.0008372217555474093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02464330229037563</v>
+      </c>
+      <c r="E26">
+        <v>-0.03946758121435564</v>
+      </c>
+      <c r="F26">
+        <v>-0.06787499224184342</v>
+      </c>
+      <c r="G26">
+        <v>-0.01309755197922632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0861707976008349</v>
+        <v>0.1349677904517057</v>
       </c>
       <c r="C28">
-        <v>0.2340020132413458</v>
+        <v>-0.2461425475955221</v>
       </c>
       <c r="D28">
-        <v>-0.006384719032559666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02189345407451181</v>
+      </c>
+      <c r="E28">
+        <v>-0.05014124934900666</v>
+      </c>
+      <c r="F28">
+        <v>-0.05845512367977839</v>
+      </c>
+      <c r="G28">
+        <v>0.02103959620969422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008641006261976419</v>
+        <v>0.005743473553884542</v>
       </c>
       <c r="C29">
-        <v>-0.02890879059426401</v>
+        <v>0.02757215691916436</v>
       </c>
       <c r="D29">
-        <v>-0.01736822452276101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01965152805910249</v>
+      </c>
+      <c r="E29">
+        <v>-0.03856587697465851</v>
+      </c>
+      <c r="F29">
+        <v>-0.08882257104978067</v>
+      </c>
+      <c r="G29">
+        <v>0.007775394969424988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0496773704663202</v>
+        <v>0.04219972215553183</v>
       </c>
       <c r="C30">
-        <v>-0.06194245791629015</v>
+        <v>0.06436202361763287</v>
       </c>
       <c r="D30">
-        <v>0.0782840261680899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1093773485255441</v>
+      </c>
+      <c r="E30">
+        <v>-0.06190182521320062</v>
+      </c>
+      <c r="F30">
+        <v>-0.08907598620417977</v>
+      </c>
+      <c r="G30">
+        <v>-0.01085013731813605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05426244932730111</v>
+        <v>0.05462642062577717</v>
       </c>
       <c r="C31">
-        <v>-0.03611317835694141</v>
+        <v>0.05592624208614199</v>
       </c>
       <c r="D31">
-        <v>-0.02890122993560785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01301165014492936</v>
+      </c>
+      <c r="E31">
+        <v>-0.0612426630408504</v>
+      </c>
+      <c r="F31">
+        <v>-0.07184617550292419</v>
+      </c>
+      <c r="G31">
+        <v>0.04803562570771495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002785518541430751</v>
+        <v>0.004860979143200965</v>
       </c>
       <c r="C32">
-        <v>-0.04398925400864476</v>
+        <v>0.03481327149793141</v>
       </c>
       <c r="D32">
-        <v>0.04084237404299876</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05156250845440939</v>
+      </c>
+      <c r="E32">
+        <v>-0.04032836057714724</v>
+      </c>
+      <c r="F32">
+        <v>-0.06358249206223295</v>
+      </c>
+      <c r="G32">
+        <v>-0.009343543996198781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02748505819320251</v>
+        <v>0.02450019917865521</v>
       </c>
       <c r="C33">
-        <v>-0.06216182684750681</v>
+        <v>0.05511517398263309</v>
       </c>
       <c r="D33">
-        <v>0.04515841225980578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07780949735370331</v>
+      </c>
+      <c r="E33">
+        <v>-0.07227380405367709</v>
+      </c>
+      <c r="F33">
+        <v>-0.1182345611584499</v>
+      </c>
+      <c r="G33">
+        <v>0.0234750747640676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04480303776658572</v>
+        <v>0.04087099253518374</v>
       </c>
       <c r="C34">
-        <v>-0.06648797624256177</v>
+        <v>0.06414258689010376</v>
       </c>
       <c r="D34">
-        <v>0.01058378550152394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03400894465238204</v>
+      </c>
+      <c r="E34">
+        <v>-0.002551854564895017</v>
+      </c>
+      <c r="F34">
+        <v>-0.07803723788780977</v>
+      </c>
+      <c r="G34">
+        <v>0.01316549677589205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01302025392255877</v>
+        <v>0.0129705684042633</v>
       </c>
       <c r="C36">
-        <v>-0.01740563960018841</v>
+        <v>0.01299069654894512</v>
       </c>
       <c r="D36">
-        <v>-0.00221399471250303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02576046413799093</v>
+      </c>
+      <c r="E36">
+        <v>-0.04642790045243515</v>
+      </c>
+      <c r="F36">
+        <v>-0.07455225482661705</v>
+      </c>
+      <c r="G36">
+        <v>0.0105576448492557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03075688677397606</v>
+        <v>0.02403044125791375</v>
       </c>
       <c r="C38">
-        <v>-0.02863683159487143</v>
+        <v>0.02544457477982192</v>
       </c>
       <c r="D38">
-        <v>-0.00545400931711663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0261000388244297</v>
+      </c>
+      <c r="E38">
+        <v>-0.04567957318282262</v>
+      </c>
+      <c r="F38">
+        <v>-0.06265452104837591</v>
+      </c>
+      <c r="G38">
+        <v>0.005700195245587826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04553410295640105</v>
+        <v>0.03933161565901358</v>
       </c>
       <c r="C39">
-        <v>-0.071452547225466</v>
+        <v>0.06859422927382106</v>
       </c>
       <c r="D39">
-        <v>0.02170919583431654</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05290438399313541</v>
+      </c>
+      <c r="E39">
+        <v>-0.03267198338445798</v>
+      </c>
+      <c r="F39">
+        <v>-0.08674610767848663</v>
+      </c>
+      <c r="G39">
+        <v>-0.01201969852555096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01483209913470698</v>
+        <v>0.01529474315596234</v>
       </c>
       <c r="C40">
-        <v>-0.04170610955564143</v>
+        <v>0.04026189454049236</v>
       </c>
       <c r="D40">
-        <v>0.03892221683075046</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03925690475908074</v>
+      </c>
+      <c r="E40">
+        <v>-0.08201606792456412</v>
+      </c>
+      <c r="F40">
+        <v>-0.06880716398306645</v>
+      </c>
+      <c r="G40">
+        <v>0.04592045989519956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01711538564641816</v>
+        <v>0.01771851646525792</v>
       </c>
       <c r="C41">
-        <v>-0.008964206917871385</v>
+        <v>0.007305922001814485</v>
       </c>
       <c r="D41">
-        <v>-0.005525114952592128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01318281744142368</v>
+      </c>
+      <c r="E41">
+        <v>-0.04990969476286619</v>
+      </c>
+      <c r="F41">
+        <v>-0.06352069234314842</v>
+      </c>
+      <c r="G41">
+        <v>0.003590576467335894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>9.918011063902323e-05</v>
+        <v>-0.0002158980631171603</v>
       </c>
       <c r="C42">
-        <v>-0.002692514210138603</v>
+        <v>0.001661793871512338</v>
       </c>
       <c r="D42">
-        <v>-0.002395442356213431</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001587478634014833</v>
+      </c>
+      <c r="E42">
+        <v>0.001404606354375707</v>
+      </c>
+      <c r="F42">
+        <v>0.00161673306273311</v>
+      </c>
+      <c r="G42">
+        <v>0.001446468605876552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03610142988160194</v>
+        <v>0.02853687369707916</v>
       </c>
       <c r="C43">
-        <v>-0.02560365156713682</v>
+        <v>0.02195545687335541</v>
       </c>
       <c r="D43">
-        <v>0.01603685949658715</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03864508039016087</v>
+      </c>
+      <c r="E43">
+        <v>-0.06101708266218749</v>
+      </c>
+      <c r="F43">
+        <v>-0.07421344382344645</v>
+      </c>
+      <c r="G43">
+        <v>0.02364550223530656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01677611843833324</v>
+        <v>0.0138642948574251</v>
       </c>
       <c r="C44">
-        <v>-0.06053990135285094</v>
+        <v>0.0532464449271201</v>
       </c>
       <c r="D44">
-        <v>0.01951969355227522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03858706708665256</v>
+      </c>
+      <c r="E44">
+        <v>-0.07609739790913737</v>
+      </c>
+      <c r="F44">
+        <v>-0.07459009387143538</v>
+      </c>
+      <c r="G44">
+        <v>-0.002511143935332917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004433421493531669</v>
+        <v>0.007435620820694916</v>
       </c>
       <c r="C46">
-        <v>-0.02462038466907716</v>
+        <v>0.02613329192090648</v>
       </c>
       <c r="D46">
-        <v>-0.02209456927126372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009707537251286502</v>
+      </c>
+      <c r="E46">
+        <v>-0.04663577671974108</v>
+      </c>
+      <c r="F46">
+        <v>-0.09957346020554023</v>
+      </c>
+      <c r="G46">
+        <v>0.002096935466163681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08415669656962663</v>
+        <v>0.08682648567952146</v>
       </c>
       <c r="C47">
-        <v>-0.06531073795919726</v>
+        <v>0.07984831945026913</v>
       </c>
       <c r="D47">
-        <v>-0.02700046196346119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01872001312036008</v>
+      </c>
+      <c r="E47">
+        <v>-0.06409880496235541</v>
+      </c>
+      <c r="F47">
+        <v>-0.07292867428356686</v>
+      </c>
+      <c r="G47">
+        <v>0.05176988152899019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01875161236141652</v>
+        <v>0.01570464310056916</v>
       </c>
       <c r="C48">
-        <v>-0.01336957380790766</v>
+        <v>0.01715838166826137</v>
       </c>
       <c r="D48">
-        <v>-0.0149588346356953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01481352450205767</v>
+      </c>
+      <c r="E48">
+        <v>-0.05776804183467289</v>
+      </c>
+      <c r="F48">
+        <v>-0.08927732325015533</v>
+      </c>
+      <c r="G48">
+        <v>0.01035202652964171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0813376753295188</v>
+        <v>0.07051996558676855</v>
       </c>
       <c r="C50">
-        <v>-0.07155807876106914</v>
+        <v>0.07237157069906962</v>
       </c>
       <c r="D50">
-        <v>-0.02990728101550806</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00650953994915165</v>
+      </c>
+      <c r="E50">
+        <v>-0.06660497693840192</v>
+      </c>
+      <c r="F50">
+        <v>-0.0581817620723698</v>
+      </c>
+      <c r="G50">
+        <v>0.07169973521328496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01493169647584382</v>
+        <v>0.01056347373015054</v>
       </c>
       <c r="C51">
-        <v>-0.05026345327959359</v>
+        <v>0.03427269916138843</v>
       </c>
       <c r="D51">
-        <v>0.02546318021248476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04890835714254265</v>
+      </c>
+      <c r="E51">
+        <v>-0.03698140722299771</v>
+      </c>
+      <c r="F51">
+        <v>-0.07734081228058685</v>
+      </c>
+      <c r="G51">
+        <v>-0.0177333429578666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08278923299331484</v>
+        <v>0.09350244936416047</v>
       </c>
       <c r="C53">
-        <v>-0.07196951964624332</v>
+        <v>0.08659959950057849</v>
       </c>
       <c r="D53">
-        <v>-0.03760832649308674</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04361395878641218</v>
+      </c>
+      <c r="E53">
+        <v>-0.06022422277113916</v>
+      </c>
+      <c r="F53">
+        <v>-0.08245190792787618</v>
+      </c>
+      <c r="G53">
+        <v>0.06382126624589297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02966625337964812</v>
+        <v>0.02753934147600976</v>
       </c>
       <c r="C54">
-        <v>-0.02660807404327554</v>
+        <v>0.02578775826564372</v>
       </c>
       <c r="D54">
-        <v>-0.0006913000498742033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.028951176943958</v>
+      </c>
+      <c r="E54">
+        <v>-0.04777161366076547</v>
+      </c>
+      <c r="F54">
+        <v>-0.09848729949315087</v>
+      </c>
+      <c r="G54">
+        <v>0.00934381229502412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07642154284908451</v>
+        <v>0.08491850242644648</v>
       </c>
       <c r="C55">
-        <v>-0.05514754285901082</v>
+        <v>0.06988010044485161</v>
       </c>
       <c r="D55">
-        <v>-0.0463598078584153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05001438803836573</v>
+      </c>
+      <c r="E55">
+        <v>-0.04722416924336773</v>
+      </c>
+      <c r="F55">
+        <v>-0.05856697734355135</v>
+      </c>
+      <c r="G55">
+        <v>0.05214247224898736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.146707170385251</v>
+        <v>0.1466555350371012</v>
       </c>
       <c r="C56">
-        <v>-0.09149892970811323</v>
+        <v>0.1048408655409171</v>
       </c>
       <c r="D56">
-        <v>-0.04642479222284425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05369146952850413</v>
+      </c>
+      <c r="E56">
+        <v>-0.04990618387491674</v>
+      </c>
+      <c r="F56">
+        <v>-0.04106898104584623</v>
+      </c>
+      <c r="G56">
+        <v>0.05908566127246425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0008993243627047668</v>
+        <v>0.0003116674896726362</v>
       </c>
       <c r="C57">
-        <v>-0.001125192826346442</v>
+        <v>0.0008132833341287824</v>
       </c>
       <c r="D57">
-        <v>0.01668411585064449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01213587729303193</v>
+      </c>
+      <c r="E57">
+        <v>-0.009070291643583689</v>
+      </c>
+      <c r="F57">
+        <v>-0.005889580200389983</v>
+      </c>
+      <c r="G57">
+        <v>0.002946767390660393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05981612717079674</v>
+        <v>0.02846638724795618</v>
       </c>
       <c r="C58">
-        <v>-0.02463723785032142</v>
+        <v>0.03543450377914625</v>
       </c>
       <c r="D58">
-        <v>0.7402185673323775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4098419608573557</v>
+      </c>
+      <c r="E58">
+        <v>-0.6617018161204378</v>
+      </c>
+      <c r="F58">
+        <v>0.546004596839888</v>
+      </c>
+      <c r="G58">
+        <v>-0.07374942950544258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1304466161955402</v>
+        <v>0.1453925194614259</v>
       </c>
       <c r="C59">
-        <v>0.1995761708157091</v>
+        <v>-0.1861359451228446</v>
       </c>
       <c r="D59">
-        <v>0.02431784048383192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03054838069425597</v>
+      </c>
+      <c r="E59">
+        <v>-0.02847103639887057</v>
+      </c>
+      <c r="F59">
+        <v>-0.02103589157637048</v>
+      </c>
+      <c r="G59">
+        <v>-0.02931681619886327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3108000835191536</v>
+        <v>0.2828659849753944</v>
       </c>
       <c r="C60">
-        <v>-0.08347714640313164</v>
+        <v>0.09762290421008835</v>
       </c>
       <c r="D60">
-        <v>0.1137992913872842</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2232020510857771</v>
+      </c>
+      <c r="E60">
+        <v>0.2651819844592432</v>
+      </c>
+      <c r="F60">
+        <v>0.08948855439191777</v>
+      </c>
+      <c r="G60">
+        <v>0.04498647400591722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04211142670906188</v>
+        <v>0.04070506809753608</v>
       </c>
       <c r="C61">
-        <v>-0.06560389831388573</v>
+        <v>0.06264775914617891</v>
       </c>
       <c r="D61">
-        <v>0.01710457255845929</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04506961124814635</v>
+      </c>
+      <c r="E61">
+        <v>-0.03735533082451926</v>
+      </c>
+      <c r="F61">
+        <v>-0.07705203159875458</v>
+      </c>
+      <c r="G61">
+        <v>0.01349113793778679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01570070786736781</v>
+        <v>0.01495356416307337</v>
       </c>
       <c r="C63">
-        <v>-0.03579449564277006</v>
+        <v>0.03234948895941846</v>
       </c>
       <c r="D63">
-        <v>-0.006171430210392016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02137342325300828</v>
+      </c>
+      <c r="E63">
+        <v>-0.04940816393905226</v>
+      </c>
+      <c r="F63">
+        <v>-0.06985181941056472</v>
+      </c>
+      <c r="G63">
+        <v>0.02927053396365652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04685024342770885</v>
+        <v>0.0553029030088975</v>
       </c>
       <c r="C64">
-        <v>-0.04464859779560564</v>
+        <v>0.05524976790566356</v>
       </c>
       <c r="D64">
-        <v>0.001240046866640159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005202025715748747</v>
+      </c>
+      <c r="E64">
+        <v>-0.03077356326419984</v>
+      </c>
+      <c r="F64">
+        <v>-0.08318383846921533</v>
+      </c>
+      <c r="G64">
+        <v>0.01113166336454235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0893757920839964</v>
+        <v>0.06966409864004021</v>
       </c>
       <c r="C65">
-        <v>-0.03200368013289884</v>
+        <v>0.03340620587404765</v>
       </c>
       <c r="D65">
-        <v>0.05331498250364233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08693732489288378</v>
+      </c>
+      <c r="E65">
+        <v>-0.03721963045043993</v>
+      </c>
+      <c r="F65">
+        <v>-0.006875506611987345</v>
+      </c>
+      <c r="G65">
+        <v>0.00523842824051537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06388638642643862</v>
+        <v>0.05207724744202513</v>
       </c>
       <c r="C66">
-        <v>-0.1023330743954643</v>
+        <v>0.0905347828380435</v>
       </c>
       <c r="D66">
-        <v>0.04411447333162653</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08073887270890104</v>
+      </c>
+      <c r="E66">
+        <v>-0.039804229972728</v>
+      </c>
+      <c r="F66">
+        <v>-0.0883490016662786</v>
+      </c>
+      <c r="G66">
+        <v>0.005803420351146811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05336998097292331</v>
+        <v>0.04600225905659321</v>
       </c>
       <c r="C67">
-        <v>-0.03235422990332362</v>
+        <v>0.03199320057666565</v>
       </c>
       <c r="D67">
-        <v>-0.008828782410601584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01319509911659306</v>
+      </c>
+      <c r="E67">
+        <v>-0.02570793369929432</v>
+      </c>
+      <c r="F67">
+        <v>-0.05158047955510535</v>
+      </c>
+      <c r="G67">
+        <v>0.01239693770178397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1161019464075255</v>
+        <v>0.1510108724923864</v>
       </c>
       <c r="C68">
-        <v>0.2872229085986288</v>
+        <v>-0.2505333463921612</v>
       </c>
       <c r="D68">
-        <v>-0.005159542497273951</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01997712373559805</v>
+      </c>
+      <c r="E68">
+        <v>-0.04287186959428525</v>
+      </c>
+      <c r="F68">
+        <v>-0.01421211630988518</v>
+      </c>
+      <c r="G68">
+        <v>0.01034208793773354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09073027307206299</v>
+        <v>0.0867162551826335</v>
       </c>
       <c r="C69">
-        <v>-0.06403445837177438</v>
+        <v>0.08630443227367605</v>
       </c>
       <c r="D69">
-        <v>-0.03946305300714782</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009886217226849016</v>
+      </c>
+      <c r="E69">
+        <v>-0.04823771682644353</v>
+      </c>
+      <c r="F69">
+        <v>-0.08985369877555029</v>
+      </c>
+      <c r="G69">
+        <v>0.02933818482097663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1095806303123281</v>
+        <v>0.1433378754964538</v>
       </c>
       <c r="C71">
-        <v>0.2454966665689733</v>
+        <v>-0.233409949248202</v>
       </c>
       <c r="D71">
-        <v>0.02783837230314341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01241431798065853</v>
+      </c>
+      <c r="E71">
+        <v>-0.06221165179841512</v>
+      </c>
+      <c r="F71">
+        <v>-0.05373868943654554</v>
+      </c>
+      <c r="G71">
+        <v>0.03719303857843374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09009858337882175</v>
+        <v>0.09777006386019621</v>
       </c>
       <c r="C72">
-        <v>-0.04966249425745112</v>
+        <v>0.056190680811907</v>
       </c>
       <c r="D72">
-        <v>0.006334554457245444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02871403502915917</v>
+      </c>
+      <c r="E72">
+        <v>-0.01582468492855554</v>
+      </c>
+      <c r="F72">
+        <v>-0.07019868153305435</v>
+      </c>
+      <c r="G72">
+        <v>0.03388535190123147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.419255601687647</v>
+        <v>0.3469296404052192</v>
       </c>
       <c r="C73">
-        <v>-0.06363810481940213</v>
+        <v>0.08106216886810468</v>
       </c>
       <c r="D73">
-        <v>0.3046243687030339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4685792434010906</v>
+      </c>
+      <c r="E73">
+        <v>0.4738296458942203</v>
+      </c>
+      <c r="F73">
+        <v>0.2487978297612123</v>
+      </c>
+      <c r="G73">
+        <v>0.1018387395673981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1108748273573465</v>
+        <v>0.1107163513600483</v>
       </c>
       <c r="C74">
-        <v>-0.09853721571396963</v>
+        <v>0.09906038927479789</v>
       </c>
       <c r="D74">
-        <v>-0.02321114063682094</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03252511210748826</v>
+      </c>
+      <c r="E74">
+        <v>-0.06447728960558599</v>
+      </c>
+      <c r="F74">
+        <v>-0.04721908071033572</v>
+      </c>
+      <c r="G74">
+        <v>0.07483060918410185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2524595473782287</v>
+        <v>0.2564380249753959</v>
       </c>
       <c r="C75">
-        <v>-0.1021029181679585</v>
+        <v>0.1333213620907653</v>
       </c>
       <c r="D75">
-        <v>-0.08674668286175864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1324216782609312</v>
+      </c>
+      <c r="E75">
+        <v>-0.06858103069735903</v>
+      </c>
+      <c r="F75">
+        <v>-0.006805459394394415</v>
+      </c>
+      <c r="G75">
+        <v>0.07473047871852032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1141440948001162</v>
+        <v>0.1277333947672123</v>
       </c>
       <c r="C76">
-        <v>-0.08826309387570007</v>
+        <v>0.1002739337061948</v>
       </c>
       <c r="D76">
-        <v>-0.04366843002567192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06262160167639194</v>
+      </c>
+      <c r="E76">
+        <v>-0.07697750677597043</v>
+      </c>
+      <c r="F76">
+        <v>-0.06400400838520355</v>
+      </c>
+      <c r="G76">
+        <v>0.0598868389627908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07748517107853627</v>
+        <v>0.06272829147851595</v>
       </c>
       <c r="C77">
-        <v>-0.05641012361331679</v>
+        <v>0.07199138509341738</v>
       </c>
       <c r="D77">
-        <v>0.06414986503721243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0652664627251985</v>
+      </c>
+      <c r="E77">
+        <v>-0.09339104141472129</v>
+      </c>
+      <c r="F77">
+        <v>-0.1104491369522547</v>
+      </c>
+      <c r="G77">
+        <v>-0.1347485898146779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04891886326980614</v>
+        <v>0.0435750288116604</v>
       </c>
       <c r="C78">
-        <v>-0.04337456162442169</v>
+        <v>0.05704640531481769</v>
       </c>
       <c r="D78">
-        <v>0.02869248022407609</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07142002868458043</v>
+      </c>
+      <c r="E78">
+        <v>-0.04600207523583452</v>
+      </c>
+      <c r="F78">
+        <v>-0.094465831515674</v>
+      </c>
+      <c r="G78">
+        <v>0.005955690749097005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02567252745714307</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03907760243289587</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06277622048366112</v>
+      </c>
+      <c r="E79">
+        <v>-0.05529094507667762</v>
+      </c>
+      <c r="F79">
+        <v>-0.03332724468142073</v>
+      </c>
+      <c r="G79">
+        <v>0.0661597400167812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04644869680376806</v>
+        <v>0.03459097401499699</v>
       </c>
       <c r="C80">
-        <v>-0.05173389395260609</v>
+        <v>0.05429965563225743</v>
       </c>
       <c r="D80">
-        <v>0.03254293248542597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04422707576274845</v>
+      </c>
+      <c r="E80">
+        <v>-0.01642768910405998</v>
+      </c>
+      <c r="F80">
+        <v>-0.03520227761239298</v>
+      </c>
+      <c r="G80">
+        <v>-0.04703034858953925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1427852678413567</v>
+        <v>0.1402461518989663</v>
       </c>
       <c r="C81">
-        <v>-0.07090480803977514</v>
+        <v>0.09523014404858576</v>
       </c>
       <c r="D81">
-        <v>-0.06287599802482068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1030848702998215</v>
+      </c>
+      <c r="E81">
+        <v>-0.083508488549441</v>
+      </c>
+      <c r="F81">
+        <v>-0.007628171392884975</v>
+      </c>
+      <c r="G81">
+        <v>0.05268372698547993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1602193838708114</v>
+        <v>0.2015278444043088</v>
       </c>
       <c r="C82">
-        <v>-0.06152810862786652</v>
+        <v>0.1384121557131792</v>
       </c>
       <c r="D82">
-        <v>-0.1549112025822401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2373316424544626</v>
+      </c>
+      <c r="E82">
+        <v>-0.0009578284958800559</v>
+      </c>
+      <c r="F82">
+        <v>-0.09469378735621735</v>
+      </c>
+      <c r="G82">
+        <v>0.04340255219739424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03826496105825266</v>
+        <v>0.02796523372625173</v>
       </c>
       <c r="C83">
-        <v>-0.0243822024779415</v>
+        <v>0.04208766474351419</v>
       </c>
       <c r="D83">
-        <v>0.03436062785595787</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03464340225932868</v>
+      </c>
+      <c r="E83">
+        <v>-0.02131097425283574</v>
+      </c>
+      <c r="F83">
+        <v>-0.04225974114526226</v>
+      </c>
+      <c r="G83">
+        <v>-0.02048898595913215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.166926105272542e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001202093489633786</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>5.684614876610581e-05</v>
+      </c>
+      <c r="E84">
+        <v>-0.0002450834075607564</v>
+      </c>
+      <c r="F84">
+        <v>0.000176511327438452</v>
+      </c>
+      <c r="G84">
+        <v>-4.116533201925742e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.22141015640694</v>
+        <v>0.2037058868169035</v>
       </c>
       <c r="C85">
-        <v>-0.09967160868283727</v>
+        <v>0.1197801207400136</v>
       </c>
       <c r="D85">
-        <v>-0.1171327831125661</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1000941563833304</v>
+      </c>
+      <c r="E85">
+        <v>0.00231807195497314</v>
+      </c>
+      <c r="F85">
+        <v>0.01827339488557536</v>
+      </c>
+      <c r="G85">
+        <v>0.1272187759057402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009241313197500411</v>
+        <v>0.01097083329298866</v>
       </c>
       <c r="C86">
-        <v>-0.03839698317640851</v>
+        <v>0.03157726401702622</v>
       </c>
       <c r="D86">
-        <v>0.04824096673667414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06542442437668403</v>
+      </c>
+      <c r="E86">
+        <v>-0.06638159361603692</v>
+      </c>
+      <c r="F86">
+        <v>-0.1247363275046012</v>
+      </c>
+      <c r="G86">
+        <v>-0.01098004909641566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02222203462899761</v>
+        <v>0.02180281936900454</v>
       </c>
       <c r="C87">
-        <v>-0.0215130451627379</v>
+        <v>0.02200019880457897</v>
       </c>
       <c r="D87">
-        <v>0.09847272320981787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08955190931826777</v>
+      </c>
+      <c r="E87">
+        <v>-0.1099965130674159</v>
+      </c>
+      <c r="F87">
+        <v>-0.07425063053648012</v>
+      </c>
+      <c r="G87">
+        <v>-0.03569731656716416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1061514248461883</v>
+        <v>0.09164096262418445</v>
       </c>
       <c r="C88">
-        <v>-0.06955419361612392</v>
+        <v>0.06261844013024088</v>
       </c>
       <c r="D88">
-        <v>-0.03283213126250047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007501504237812041</v>
+      </c>
+      <c r="E88">
+        <v>-0.04153778677947647</v>
+      </c>
+      <c r="F88">
+        <v>-0.07158103477268192</v>
+      </c>
+      <c r="G88">
+        <v>-0.02804961260400775</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1771533850227074</v>
+        <v>0.2220285142606485</v>
       </c>
       <c r="C89">
-        <v>0.3843653633086213</v>
+        <v>-0.3788704676742441</v>
       </c>
       <c r="D89">
-        <v>-0.01014415881005608</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005268889700156548</v>
+      </c>
+      <c r="E89">
+        <v>-0.06267282290319476</v>
+      </c>
+      <c r="F89">
+        <v>-0.07623920875447372</v>
+      </c>
+      <c r="G89">
+        <v>-0.06312963370358986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1711054619185066</v>
+        <v>0.2011960785941571</v>
       </c>
       <c r="C90">
-        <v>0.3429978290040582</v>
+        <v>-0.3135340048063253</v>
       </c>
       <c r="D90">
-        <v>-0.01992900737626896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01592949969963511</v>
+      </c>
+      <c r="E90">
+        <v>-0.07187040638612861</v>
+      </c>
+      <c r="F90">
+        <v>-0.04007100011750458</v>
+      </c>
+      <c r="G90">
+        <v>-0.01218953886339718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1920925785904873</v>
+        <v>0.185903260099129</v>
       </c>
       <c r="C91">
-        <v>-0.1191261569382335</v>
+        <v>0.1409218931630285</v>
       </c>
       <c r="D91">
-        <v>-0.08378016343964036</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1112686189576787</v>
+      </c>
+      <c r="E91">
+        <v>-0.06127025818365195</v>
+      </c>
+      <c r="F91">
+        <v>-0.03141781934782076</v>
+      </c>
+      <c r="G91">
+        <v>0.05953287255445924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1620965035682614</v>
+        <v>0.1833946603556058</v>
       </c>
       <c r="C92">
-        <v>0.2899291180622246</v>
+        <v>-0.2840001659424898</v>
       </c>
       <c r="D92">
-        <v>-0.007890569025085453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.008049173981095446</v>
+      </c>
+      <c r="E92">
+        <v>-0.06965989638976018</v>
+      </c>
+      <c r="F92">
+        <v>-0.08006129082691527</v>
+      </c>
+      <c r="G92">
+        <v>-0.006166463495503005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1948053982120233</v>
+        <v>0.2257562703059424</v>
       </c>
       <c r="C93">
-        <v>0.3458249650224292</v>
+        <v>-0.3192786236023208</v>
       </c>
       <c r="D93">
-        <v>-0.01409250176765379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003535576681774076</v>
+      </c>
+      <c r="E93">
+        <v>-0.05047607922353047</v>
+      </c>
+      <c r="F93">
+        <v>-0.04047580319937291</v>
+      </c>
+      <c r="G93">
+        <v>0.02851883226210116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3391005565644879</v>
+        <v>0.3417737320480292</v>
       </c>
       <c r="C94">
-        <v>-0.1363395127406151</v>
+        <v>0.1829303796140646</v>
       </c>
       <c r="D94">
-        <v>-0.4266464693437166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4935684918293394</v>
+      </c>
+      <c r="E94">
+        <v>-0.04510250125581163</v>
+      </c>
+      <c r="F94">
+        <v>0.4371534892934426</v>
+      </c>
+      <c r="G94">
+        <v>-0.3377530479901647</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1116323690065245</v>
+        <v>0.08555202528046177</v>
       </c>
       <c r="C95">
-        <v>-0.08114850001834785</v>
+        <v>0.06847386274440649</v>
       </c>
       <c r="D95">
-        <v>0.1100765527486699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1714819313345826</v>
+      </c>
+      <c r="E95">
+        <v>0.1035495427837529</v>
+      </c>
+      <c r="F95">
+        <v>-0.2316788722581457</v>
+      </c>
+      <c r="G95">
+        <v>-0.8618753253291778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1959888127375126</v>
+        <v>0.1877328424725178</v>
       </c>
       <c r="C98">
-        <v>-0.02447208396707263</v>
+        <v>0.04487961129539655</v>
       </c>
       <c r="D98">
-        <v>0.1200734834544788</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.186168004812731</v>
+      </c>
+      <c r="E98">
+        <v>0.1483520000791211</v>
+      </c>
+      <c r="F98">
+        <v>0.03469676158758277</v>
+      </c>
+      <c r="G98">
+        <v>0.102681645444461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008577681093932485</v>
+        <v>0.005794550874635165</v>
       </c>
       <c r="C101">
-        <v>-0.02892314985391937</v>
+        <v>0.02731696198203095</v>
       </c>
       <c r="D101">
-        <v>-0.01791635920760839</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01911340806033915</v>
+      </c>
+      <c r="E101">
+        <v>-0.03921658332277106</v>
+      </c>
+      <c r="F101">
+        <v>-0.08854403713386792</v>
+      </c>
+      <c r="G101">
+        <v>0.006691419453830065</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1221192530206964</v>
+        <v>0.1238781223958883</v>
       </c>
       <c r="C102">
-        <v>-0.0721201674073594</v>
+        <v>0.1003401941634636</v>
       </c>
       <c r="D102">
-        <v>-0.02864635319043562</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04854751324405731</v>
+      </c>
+      <c r="E102">
+        <v>0.007098895432277848</v>
+      </c>
+      <c r="F102">
+        <v>-0.0431765173211929</v>
+      </c>
+      <c r="G102">
+        <v>0.02331731386828421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
